--- a/asignacionTareas.xlsx
+++ b/asignacionTareas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cash\OneDrive\Escritorio\Módulo\2 Año\2 - Cliente\2 - Prácticas\7.3 PE - Proyecto Final\Clientes_Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA22FC3F-E5CF-4E76-BDDD-1A6A94C9902A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491CA664-D905-4171-9D8A-BE8277A581F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,10 +60,10 @@
     <t>Creación GitHub, asignación de Tareas, y tratamiento de AJAX</t>
   </si>
   <si>
-    <t>Manejo de AJAX y Ausencia de productos</t>
-  </si>
-  <si>
     <t>PROYECTO</t>
+  </si>
+  <si>
+    <t>Llamada AJAX y Ausencia de productos</t>
   </si>
 </sst>
 </file>
@@ -138,12 +138,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4BAA190A-3290-46CD-8585-1E4481D57DBB}" name="Tabla1" displayName="Tabla1" ref="B2:D6" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4BAA190A-3290-46CD-8585-1E4481D57DBB}" name="Tabla1" displayName="Tabla1" ref="B2:D6" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="B2:D6" xr:uid="{4BAA190A-3290-46CD-8585-1E4481D57DBB}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7AFEA70B-672C-4E66-99D6-22DCA11FD3B6}" name="PROYECTO" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{E8269B36-66F3-4D7E-B5C6-3D1FD952F161}" name="Clientes" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{9D59D0F6-D019-4CFF-88EA-1DFBBE3DDCD8}" name="Interfaces" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{7AFEA70B-672C-4E66-99D6-22DCA11FD3B6}" name="PROYECTO" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{E8269B36-66F3-4D7E-B5C6-3D1FD952F161}" name="Clientes" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{9D59D0F6-D019-4CFF-88EA-1DFBBE3DDCD8}" name="Interfaces" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -415,7 +415,7 @@
   <dimension ref="B2:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,7 +427,7 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>6</v>
